--- a/process/resources/Pages.xlsx
+++ b/process/resources/Pages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grosg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grosg\Documents\Personnel\GitKraken\Vite-KingdomCreator-New\process\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A981790-243B-410F-9E1E-91C370C2DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB8950-7DBE-43BA-A2B0-D5B749EAA658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1695" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="1275" windowWidth="22515" windowHeight="12030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -13118,9 +13118,6 @@
     <t>Importeurin</t>
   </si>
   <si>
-    <t>importateur</t>
-  </si>
-  <si>
     <t>allies_merchantcamp</t>
   </si>
   <si>
@@ -15558,6 +15555,9 @@
   </si>
   <si>
     <t>Maladie</t>
+  </si>
+  <si>
+    <t>Importateur</t>
   </si>
 </sst>
 </file>
@@ -15970,8 +15970,8 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="750" topLeftCell="A107" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="750" topLeftCell="A851" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F868" sqref="F868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34089,7 +34089,7 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="str">
-        <f t="shared" ref="A785:A848" si="9">IFERROR("cards."&amp;IF(RIGHT(LEFT(B785,FIND("_",B785)-1),1)="2",LEFT(B785,FIND("_",B785)-2),LEFT(B785,FIND("_",B785)-1)),"")</f>
+        <f t="shared" ref="A785:A786" si="9">IFERROR("cards."&amp;IF(RIGHT(LEFT(B785,FIND("_",B785)-1),1)="2",LEFT(B785,FIND("_",B785)-2),LEFT(B785,FIND("_",B785)-1)),"")</f>
         <v>cards.renaissance</v>
       </c>
       <c r="B785" s="1" t="s">
@@ -35986,7 +35986,7 @@
         <v>4299</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>4300</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
@@ -35995,19 +35995,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B868" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C868" s="1" t="s">
         <v>4301</v>
       </c>
-      <c r="C868" s="1" t="s">
+      <c r="D868" s="1" t="s">
         <v>4302</v>
       </c>
-      <c r="D868" s="1" t="s">
+      <c r="E868" s="1" t="s">
         <v>4303</v>
       </c>
-      <c r="E868" s="1" t="s">
+      <c r="F868" s="1" t="s">
         <v>4304</v>
-      </c>
-      <c r="F868" s="1" t="s">
-        <v>4305</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
@@ -36016,19 +36016,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B869" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C869" s="1" t="s">
         <v>4306</v>
       </c>
-      <c r="C869" s="1" t="s">
+      <c r="D869" s="1" t="s">
         <v>4307</v>
       </c>
-      <c r="D869" s="1" t="s">
+      <c r="E869" s="1" t="s">
         <v>4308</v>
       </c>
-      <c r="E869" s="1" t="s">
+      <c r="F869" s="1" t="s">
         <v>4309</v>
-      </c>
-      <c r="F869" s="1" t="s">
-        <v>4310</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
@@ -36037,19 +36037,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B870" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C870" s="1" t="s">
         <v>4311</v>
       </c>
-      <c r="C870" s="1" t="s">
+      <c r="D870" s="1" t="s">
         <v>4312</v>
       </c>
-      <c r="D870" s="1" t="s">
+      <c r="E870" s="1" t="s">
         <v>4313</v>
       </c>
-      <c r="E870" s="1" t="s">
+      <c r="F870" s="1" t="s">
         <v>4314</v>
-      </c>
-      <c r="F870" s="1" t="s">
-        <v>4315</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
@@ -36058,19 +36058,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B871" s="1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C871" s="1" t="s">
         <v>4316</v>
       </c>
-      <c r="C871" s="1" t="s">
+      <c r="D871" s="1" t="s">
         <v>4317</v>
       </c>
-      <c r="D871" s="1" t="s">
+      <c r="E871" s="1" t="s">
         <v>4318</v>
       </c>
-      <c r="E871" s="1" t="s">
+      <c r="F871" s="1" t="s">
         <v>4319</v>
-      </c>
-      <c r="F871" s="1" t="s">
-        <v>4320</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
@@ -36079,19 +36079,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B872" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C872" s="1" t="s">
         <v>4321</v>
       </c>
-      <c r="C872" s="1" t="s">
+      <c r="D872" s="1" t="s">
         <v>4322</v>
       </c>
-      <c r="D872" s="1" t="s">
+      <c r="E872" s="1" t="s">
         <v>4323</v>
       </c>
-      <c r="E872" s="1" t="s">
+      <c r="F872" s="1" t="s">
         <v>4324</v>
-      </c>
-      <c r="F872" s="1" t="s">
-        <v>4325</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -36100,16 +36100,16 @@
         <v>cards.allies</v>
       </c>
       <c r="B873" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C873" s="1" t="s">
         <v>4326</v>
       </c>
-      <c r="C873" s="1" t="s">
+      <c r="D873" s="1" t="s">
         <v>4327</v>
       </c>
-      <c r="D873" s="1" t="s">
+      <c r="E873" s="1" t="s">
         <v>4328</v>
-      </c>
-      <c r="E873" s="1" t="s">
-        <v>4329</v>
       </c>
       <c r="F873" s="1" t="s">
         <v>1069</v>
@@ -36121,19 +36121,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B874" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C874" s="1" t="s">
         <v>4330</v>
       </c>
-      <c r="C874" s="1" t="s">
+      <c r="D874" s="1" t="s">
         <v>4331</v>
       </c>
-      <c r="D874" s="1" t="s">
+      <c r="E874" s="1" t="s">
         <v>4332</v>
       </c>
-      <c r="E874" s="1" t="s">
+      <c r="F874" s="1" t="s">
         <v>4333</v>
-      </c>
-      <c r="F874" s="1" t="s">
-        <v>4334</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
@@ -36142,19 +36142,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B875" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C875" s="1" t="s">
         <v>4335</v>
       </c>
-      <c r="C875" s="1" t="s">
+      <c r="D875" s="1" t="s">
         <v>4336</v>
       </c>
-      <c r="D875" s="1" t="s">
+      <c r="E875" s="1" t="s">
         <v>4337</v>
       </c>
-      <c r="E875" s="1" t="s">
+      <c r="F875" s="1" t="s">
         <v>4338</v>
-      </c>
-      <c r="F875" s="1" t="s">
-        <v>4339</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
@@ -36163,19 +36163,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B876" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C876" s="1" t="s">
         <v>4340</v>
       </c>
-      <c r="C876" s="1" t="s">
+      <c r="D876" s="1" t="s">
         <v>4341</v>
       </c>
-      <c r="D876" s="1" t="s">
+      <c r="E876" s="1" t="s">
         <v>4342</v>
       </c>
-      <c r="E876" s="1" t="s">
+      <c r="F876" s="1" t="s">
         <v>4343</v>
-      </c>
-      <c r="F876" s="1" t="s">
-        <v>4344</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
@@ -36184,19 +36184,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B877" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C877" s="1" t="s">
         <v>4345</v>
       </c>
-      <c r="C877" s="1" t="s">
+      <c r="D877" s="1" t="s">
         <v>4346</v>
       </c>
-      <c r="D877" s="1" t="s">
+      <c r="E877" s="1" t="s">
         <v>4347</v>
       </c>
-      <c r="E877" s="1" t="s">
+      <c r="F877" s="1" t="s">
         <v>4348</v>
-      </c>
-      <c r="F877" s="1" t="s">
-        <v>4349</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
@@ -36205,19 +36205,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B878" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C878" s="1" t="s">
         <v>4350</v>
       </c>
-      <c r="C878" s="1" t="s">
+      <c r="D878" s="1" t="s">
         <v>4351</v>
       </c>
-      <c r="D878" s="1" t="s">
+      <c r="E878" s="1" t="s">
         <v>4352</v>
       </c>
-      <c r="E878" s="1" t="s">
+      <c r="F878" s="1" t="s">
         <v>4353</v>
-      </c>
-      <c r="F878" s="1" t="s">
-        <v>4354</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
@@ -36226,19 +36226,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B879" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C879" s="1" t="s">
         <v>4355</v>
       </c>
-      <c r="C879" s="1" t="s">
+      <c r="D879" s="1" t="s">
         <v>4356</v>
       </c>
-      <c r="D879" s="1" t="s">
+      <c r="E879" s="1" t="s">
         <v>4357</v>
       </c>
-      <c r="E879" s="1" t="s">
+      <c r="F879" s="1" t="s">
         <v>4358</v>
-      </c>
-      <c r="F879" s="1" t="s">
-        <v>4359</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
@@ -36247,19 +36247,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B880" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="C880" s="1" t="s">
         <v>4360</v>
       </c>
-      <c r="C880" s="1" t="s">
+      <c r="D880" s="1" t="s">
         <v>4361</v>
       </c>
-      <c r="D880" s="1" t="s">
+      <c r="E880" s="1" t="s">
         <v>4362</v>
       </c>
-      <c r="E880" s="1" t="s">
+      <c r="F880" s="1" t="s">
         <v>4363</v>
-      </c>
-      <c r="F880" s="1" t="s">
-        <v>4364</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
@@ -36268,19 +36268,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B881" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C881" s="1" t="s">
         <v>4365</v>
       </c>
-      <c r="C881" s="1" t="s">
+      <c r="D881" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E881" s="1" t="s">
         <v>4366</v>
       </c>
-      <c r="D881" s="1" t="s">
-        <v>4366</v>
-      </c>
-      <c r="E881" s="1" t="s">
+      <c r="F881" s="1" t="s">
         <v>4367</v>
-      </c>
-      <c r="F881" s="1" t="s">
-        <v>4368</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -36289,19 +36289,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B882" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C882" s="1" t="s">
         <v>4369</v>
       </c>
-      <c r="C882" s="1" t="s">
+      <c r="D882" s="1" t="s">
         <v>4370</v>
       </c>
-      <c r="D882" s="1" t="s">
+      <c r="E882" s="1" t="s">
         <v>4371</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="F882" s="1" t="s">
         <v>4372</v>
-      </c>
-      <c r="F882" s="1" t="s">
-        <v>4373</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
@@ -36310,19 +36310,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>1909</v>
       </c>
       <c r="D883" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E883" s="1" t="s">
         <v>4375</v>
       </c>
-      <c r="E883" s="1" t="s">
+      <c r="F883" s="1" t="s">
         <v>4376</v>
-      </c>
-      <c r="F883" s="1" t="s">
-        <v>4377</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
@@ -36331,19 +36331,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B884" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C884" s="1" t="s">
         <v>4378</v>
       </c>
-      <c r="C884" s="1" t="s">
+      <c r="D884" s="1" t="s">
         <v>4379</v>
       </c>
-      <c r="D884" s="1" t="s">
+      <c r="E884" s="1" t="s">
         <v>4380</v>
       </c>
-      <c r="E884" s="1" t="s">
+      <c r="F884" s="1" t="s">
         <v>4381</v>
-      </c>
-      <c r="F884" s="1" t="s">
-        <v>4382</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -36352,19 +36352,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B885" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C885" s="1" t="s">
         <v>4383</v>
       </c>
-      <c r="C885" s="1" t="s">
+      <c r="D885" s="1" t="s">
         <v>4384</v>
       </c>
-      <c r="D885" s="1" t="s">
+      <c r="E885" s="1" t="s">
         <v>4385</v>
       </c>
-      <c r="E885" s="1" t="s">
+      <c r="F885" s="1" t="s">
         <v>4386</v>
-      </c>
-      <c r="F885" s="1" t="s">
-        <v>4387</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
@@ -36373,19 +36373,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B886" s="1" t="s">
+        <v>4387</v>
+      </c>
+      <c r="C886" s="1" t="s">
         <v>4388</v>
       </c>
-      <c r="C886" s="1" t="s">
+      <c r="D886" s="1" t="s">
         <v>4389</v>
       </c>
-      <c r="D886" s="1" t="s">
+      <c r="E886" s="1" t="s">
         <v>4390</v>
       </c>
-      <c r="E886" s="1" t="s">
+      <c r="F886" s="1" t="s">
         <v>4391</v>
-      </c>
-      <c r="F886" s="1" t="s">
-        <v>4392</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
@@ -36394,19 +36394,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B887" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C887" s="1" t="s">
         <v>4393</v>
       </c>
-      <c r="C887" s="1" t="s">
+      <c r="D887" s="1" t="s">
         <v>4394</v>
       </c>
-      <c r="D887" s="1" t="s">
+      <c r="E887" s="1" t="s">
         <v>4395</v>
       </c>
-      <c r="E887" s="1" t="s">
+      <c r="F887" s="1" t="s">
         <v>4396</v>
-      </c>
-      <c r="F887" s="1" t="s">
-        <v>4397</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
@@ -36415,19 +36415,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B888" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="C888" s="1" t="s">
         <v>4398</v>
       </c>
-      <c r="C888" s="1" t="s">
+      <c r="D888" s="1" t="s">
         <v>4399</v>
       </c>
-      <c r="D888" s="1" t="s">
+      <c r="E888" s="1" t="s">
         <v>4400</v>
       </c>
-      <c r="E888" s="1" t="s">
-        <v>4401</v>
-      </c>
       <c r="F888" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
@@ -36436,19 +36436,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B889" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C889" s="1" t="s">
         <v>4402</v>
       </c>
-      <c r="C889" s="1" t="s">
+      <c r="D889" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E889" s="1" t="s">
         <v>4403</v>
       </c>
-      <c r="D889" s="1" t="s">
-        <v>4403</v>
-      </c>
-      <c r="E889" s="1" t="s">
+      <c r="F889" s="1" t="s">
         <v>4404</v>
-      </c>
-      <c r="F889" s="1" t="s">
-        <v>4405</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
@@ -36457,19 +36457,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B890" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C890" s="1" t="s">
         <v>4406</v>
       </c>
-      <c r="C890" s="1" t="s">
+      <c r="D890" s="1" t="s">
         <v>4407</v>
       </c>
-      <c r="D890" s="1" t="s">
+      <c r="E890" s="1" t="s">
         <v>4408</v>
       </c>
-      <c r="E890" s="1" t="s">
+      <c r="F890" s="1" t="s">
         <v>4409</v>
-      </c>
-      <c r="F890" s="1" t="s">
-        <v>4410</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
@@ -36478,19 +36478,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B891" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C891" s="1" t="s">
         <v>4411</v>
       </c>
-      <c r="C891" s="1" t="s">
+      <c r="D891" s="1" t="s">
         <v>4412</v>
       </c>
-      <c r="D891" s="1" t="s">
-        <v>4413</v>
-      </c>
       <c r="E891" s="1" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="F891" s="1" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -36499,19 +36499,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B892" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C892" s="1" t="s">
         <v>4414</v>
       </c>
-      <c r="C892" s="1" t="s">
+      <c r="D892" s="1" t="s">
         <v>4415</v>
       </c>
-      <c r="D892" s="1" t="s">
+      <c r="E892" s="1" t="s">
         <v>4416</v>
       </c>
-      <c r="E892" s="1" t="s">
+      <c r="F892" s="1" t="s">
         <v>4417</v>
-      </c>
-      <c r="F892" s="1" t="s">
-        <v>4418</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
@@ -36520,19 +36520,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B893" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C893" s="1" t="s">
         <v>4419</v>
       </c>
-      <c r="C893" s="1" t="s">
+      <c r="D893" s="1" t="s">
         <v>4420</v>
       </c>
-      <c r="D893" s="1" t="s">
+      <c r="E893" s="1" t="s">
         <v>4421</v>
       </c>
-      <c r="E893" s="1" t="s">
+      <c r="F893" s="1" t="s">
         <v>4422</v>
-      </c>
-      <c r="F893" s="1" t="s">
-        <v>4423</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -36541,19 +36541,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B894" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C894" s="1" t="s">
         <v>4424</v>
       </c>
-      <c r="C894" s="1" t="s">
+      <c r="D894" s="1" t="s">
         <v>4425</v>
       </c>
-      <c r="D894" s="1" t="s">
+      <c r="E894" s="1" t="s">
         <v>4426</v>
       </c>
-      <c r="E894" s="1" t="s">
+      <c r="F894" s="1" t="s">
         <v>4427</v>
-      </c>
-      <c r="F894" s="1" t="s">
-        <v>4428</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -36562,19 +36562,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B895" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C895" s="1" t="s">
         <v>4429</v>
       </c>
-      <c r="C895" s="1" t="s">
+      <c r="D895" s="1" t="s">
         <v>4430</v>
       </c>
-      <c r="D895" s="1" t="s">
+      <c r="E895" s="1" t="s">
         <v>4431</v>
       </c>
-      <c r="E895" s="1" t="s">
+      <c r="F895" s="1" t="s">
         <v>4432</v>
-      </c>
-      <c r="F895" s="1" t="s">
-        <v>4433</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -36583,19 +36583,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B896" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C896" s="1" t="s">
         <v>4434</v>
       </c>
-      <c r="C896" s="1" t="s">
+      <c r="D896" s="1" t="s">
         <v>4435</v>
       </c>
-      <c r="D896" s="1" t="s">
+      <c r="E896" s="1" t="s">
         <v>4436</v>
       </c>
-      <c r="E896" s="1" t="s">
+      <c r="F896" s="1" t="s">
         <v>4437</v>
-      </c>
-      <c r="F896" s="1" t="s">
-        <v>4438</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
@@ -36604,19 +36604,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B897" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C897" s="1" t="s">
         <v>4439</v>
       </c>
-      <c r="C897" s="1" t="s">
+      <c r="D897" s="1" t="s">
         <v>4440</v>
       </c>
-      <c r="D897" s="1" t="s">
+      <c r="E897" s="1" t="s">
         <v>4441</v>
       </c>
-      <c r="E897" s="1" t="s">
+      <c r="F897" s="1" t="s">
         <v>4442</v>
-      </c>
-      <c r="F897" s="1" t="s">
-        <v>4443</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
@@ -36625,19 +36625,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B898" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C898" s="1" t="s">
         <v>4444</v>
       </c>
-      <c r="C898" s="1" t="s">
+      <c r="D898" s="1" t="s">
         <v>4445</v>
       </c>
-      <c r="D898" s="1" t="s">
+      <c r="E898" s="1" t="s">
         <v>4446</v>
       </c>
-      <c r="E898" s="1" t="s">
+      <c r="F898" s="1" t="s">
         <v>4447</v>
-      </c>
-      <c r="F898" s="1" t="s">
-        <v>4448</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
@@ -36646,19 +36646,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B899" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C899" s="1" t="s">
         <v>4449</v>
       </c>
-      <c r="C899" s="1" t="s">
+      <c r="D899" s="1" t="s">
         <v>4450</v>
       </c>
-      <c r="D899" s="1" t="s">
+      <c r="E899" s="1" t="s">
         <v>4451</v>
       </c>
-      <c r="E899" s="1" t="s">
+      <c r="F899" s="1" t="s">
         <v>4452</v>
-      </c>
-      <c r="F899" s="1" t="s">
-        <v>4453</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
@@ -36667,19 +36667,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B900" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C900" s="1" t="s">
         <v>4454</v>
       </c>
-      <c r="C900" s="1" t="s">
+      <c r="D900" s="1" t="s">
         <v>4455</v>
       </c>
-      <c r="D900" s="1" t="s">
+      <c r="E900" s="1" t="s">
         <v>4456</v>
       </c>
-      <c r="E900" s="1" t="s">
+      <c r="F900" s="1" t="s">
         <v>4457</v>
-      </c>
-      <c r="F900" s="1" t="s">
-        <v>4458</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.25">
@@ -36688,19 +36688,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B901" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C901" s="1" t="s">
         <v>4459</v>
       </c>
-      <c r="C901" s="1" t="s">
+      <c r="D901" s="1" t="s">
         <v>4460</v>
       </c>
-      <c r="D901" s="1" t="s">
+      <c r="E901" s="1" t="s">
         <v>4461</v>
       </c>
-      <c r="E901" s="1" t="s">
+      <c r="F901" s="1" t="s">
         <v>4462</v>
-      </c>
-      <c r="F901" s="1" t="s">
-        <v>4463</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
@@ -36709,19 +36709,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B902" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C902" s="1" t="s">
         <v>4464</v>
       </c>
-      <c r="C902" s="1" t="s">
+      <c r="D902" s="1" t="s">
         <v>4465</v>
       </c>
-      <c r="D902" s="1" t="s">
+      <c r="E902" s="1" t="s">
         <v>4466</v>
       </c>
-      <c r="E902" s="1" t="s">
+      <c r="F902" s="1" t="s">
         <v>4467</v>
-      </c>
-      <c r="F902" s="1" t="s">
-        <v>4468</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
@@ -36730,19 +36730,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B903" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C903" s="1" t="s">
         <v>4469</v>
       </c>
-      <c r="C903" s="1" t="s">
+      <c r="D903" s="1" t="s">
         <v>4470</v>
       </c>
-      <c r="D903" s="1" t="s">
+      <c r="E903" s="1" t="s">
         <v>4471</v>
       </c>
-      <c r="E903" s="1" t="s">
+      <c r="F903" s="1" t="s">
         <v>4472</v>
-      </c>
-      <c r="F903" s="1" t="s">
-        <v>4473</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
@@ -36751,19 +36751,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B904" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C904" s="1" t="s">
         <v>4474</v>
       </c>
-      <c r="C904" s="1" t="s">
+      <c r="D904" s="1" t="s">
         <v>4475</v>
       </c>
-      <c r="D904" s="1" t="s">
+      <c r="E904" s="1" t="s">
         <v>4476</v>
       </c>
-      <c r="E904" s="1" t="s">
+      <c r="F904" s="1" t="s">
         <v>4477</v>
-      </c>
-      <c r="F904" s="1" t="s">
-        <v>4478</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
@@ -36772,19 +36772,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B905" s="1" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C905" s="1" t="s">
         <v>4479</v>
       </c>
-      <c r="C905" s="1" t="s">
+      <c r="D905" s="12" t="s">
         <v>4480</v>
       </c>
-      <c r="D905" s="12" t="s">
+      <c r="E905" s="1" t="s">
         <v>4481</v>
       </c>
-      <c r="E905" s="1" t="s">
+      <c r="F905" s="1" t="s">
         <v>4482</v>
-      </c>
-      <c r="F905" s="1" t="s">
-        <v>4483</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
@@ -36793,19 +36793,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B906" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C906" s="1" t="s">
         <v>4484</v>
       </c>
-      <c r="C906" s="1" t="s">
+      <c r="D906" s="1" t="s">
         <v>4485</v>
       </c>
-      <c r="D906" s="1" t="s">
+      <c r="E906" s="1" t="s">
         <v>4486</v>
       </c>
-      <c r="E906" s="1" t="s">
+      <c r="F906" s="1" t="s">
         <v>4487</v>
-      </c>
-      <c r="F906" s="1" t="s">
-        <v>4488</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -36814,19 +36814,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B907" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C907" s="1" t="s">
         <v>4489</v>
       </c>
-      <c r="C907" s="1" t="s">
+      <c r="D907" s="1" t="s">
         <v>4490</v>
       </c>
-      <c r="D907" s="1" t="s">
+      <c r="E907" s="1" t="s">
         <v>4491</v>
       </c>
-      <c r="E907" s="1" t="s">
+      <c r="F907" s="1" t="s">
         <v>4492</v>
-      </c>
-      <c r="F907" s="1" t="s">
-        <v>4493</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
@@ -36835,19 +36835,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B908" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C908" s="1" t="s">
         <v>4494</v>
       </c>
-      <c r="C908" s="1" t="s">
+      <c r="D908" s="1" t="s">
         <v>4495</v>
       </c>
-      <c r="D908" s="1" t="s">
+      <c r="E908" s="1" t="s">
         <v>4496</v>
       </c>
-      <c r="E908" s="1" t="s">
+      <c r="F908" s="1" t="s">
         <v>4497</v>
-      </c>
-      <c r="F908" s="1" t="s">
-        <v>4498</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
@@ -36856,19 +36856,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B909" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C909" s="1" t="s">
         <v>4499</v>
       </c>
-      <c r="C909" s="1" t="s">
+      <c r="D909" s="1" t="s">
         <v>4500</v>
       </c>
-      <c r="D909" s="1" t="s">
+      <c r="E909" s="1" t="s">
         <v>4501</v>
       </c>
-      <c r="E909" s="1" t="s">
+      <c r="F909" s="1" t="s">
         <v>4502</v>
-      </c>
-      <c r="F909" s="1" t="s">
-        <v>4503</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
@@ -36877,19 +36877,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B910" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C910" s="1" t="s">
         <v>4504</v>
       </c>
-      <c r="C910" s="1" t="s">
+      <c r="D910" s="1" t="s">
         <v>4505</v>
       </c>
-      <c r="D910" s="1" t="s">
+      <c r="E910" s="1" t="s">
         <v>4506</v>
       </c>
-      <c r="E910" s="1" t="s">
+      <c r="F910" s="1" t="s">
         <v>4507</v>
-      </c>
-      <c r="F910" s="1" t="s">
-        <v>4508</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -36898,19 +36898,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B911" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C911" s="1" t="s">
         <v>4509</v>
       </c>
-      <c r="C911" s="1" t="s">
+      <c r="D911" s="1" t="s">
         <v>4510</v>
       </c>
-      <c r="D911" s="1" t="s">
+      <c r="E911" s="1" t="s">
         <v>4511</v>
       </c>
-      <c r="E911" s="1" t="s">
+      <c r="F911" s="1" t="s">
         <v>4512</v>
-      </c>
-      <c r="F911" s="1" t="s">
-        <v>4513</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
@@ -36919,19 +36919,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B912" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C912" s="1" t="s">
         <v>4514</v>
       </c>
-      <c r="C912" s="1" t="s">
+      <c r="D912" s="1" t="s">
         <v>4515</v>
       </c>
-      <c r="D912" s="1" t="s">
+      <c r="E912" s="1" t="s">
         <v>4516</v>
       </c>
-      <c r="E912" s="1" t="s">
+      <c r="F912" s="1" t="s">
         <v>4517</v>
-      </c>
-      <c r="F912" s="1" t="s">
-        <v>4518</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
@@ -36940,19 +36940,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B913" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C913" s="1" t="s">
         <v>4519</v>
       </c>
-      <c r="C913" s="1" t="s">
+      <c r="D913" s="1" t="s">
         <v>4520</v>
       </c>
-      <c r="D913" s="1" t="s">
+      <c r="E913" s="1" t="s">
         <v>4521</v>
       </c>
-      <c r="E913" s="1" t="s">
+      <c r="F913" s="1" t="s">
         <v>4522</v>
-      </c>
-      <c r="F913" s="1" t="s">
-        <v>4523</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
@@ -36961,19 +36961,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B914" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C914" s="1" t="s">
         <v>4524</v>
       </c>
-      <c r="C914" s="1" t="s">
+      <c r="D914" s="1" t="s">
         <v>4525</v>
       </c>
-      <c r="D914" s="1" t="s">
+      <c r="E914" s="1" t="s">
         <v>4526</v>
       </c>
-      <c r="E914" s="1" t="s">
+      <c r="F914" s="1" t="s">
         <v>4527</v>
-      </c>
-      <c r="F914" s="1" t="s">
-        <v>4528</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
@@ -36982,10 +36982,10 @@
         <v>cards.allies</v>
       </c>
       <c r="B915" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C915" s="1" t="s">
         <v>4529</v>
-      </c>
-      <c r="C915" s="1" t="s">
-        <v>4530</v>
       </c>
       <c r="F915" s="1" t="s">
         <v>4285</v>
@@ -36993,23 +36993,23 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="str">
-        <f t="shared" ref="A916:A947" si="14">IFERROR("cards."&amp;IF(RIGHT(LEFT(B916,FIND("_",B916)-1),1)="2",LEFT(B916,FIND("_",B916)-2),LEFT(B916,FIND("_",B916)-1)),"")</f>
+        <f t="shared" ref="A916:A944" si="14">IFERROR("cards."&amp;IF(RIGHT(LEFT(B916,FIND("_",B916)-1),1)="2",LEFT(B916,FIND("_",B916)-2),LEFT(B916,FIND("_",B916)-1)),"")</f>
         <v>cards.allies</v>
       </c>
       <c r="B916" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C916" s="1" t="s">
         <v>4531</v>
       </c>
-      <c r="C916" s="1" t="s">
+      <c r="D916" s="1" t="s">
         <v>4532</v>
       </c>
-      <c r="D916" s="1" t="s">
+      <c r="E916" s="1" t="s">
         <v>4533</v>
       </c>
-      <c r="E916" s="1" t="s">
+      <c r="F916" s="1" t="s">
         <v>4534</v>
-      </c>
-      <c r="F916" s="1" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
@@ -37018,19 +37018,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B917" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C917" s="1" t="s">
         <v>4536</v>
       </c>
-      <c r="C917" s="1" t="s">
+      <c r="D917" s="1" t="s">
         <v>4537</v>
       </c>
-      <c r="D917" s="1" t="s">
+      <c r="E917" s="1" t="s">
         <v>4538</v>
       </c>
-      <c r="E917" s="1" t="s">
-        <v>4539</v>
-      </c>
       <c r="F917" s="1" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -37039,19 +37039,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B918" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C918" s="1" t="s">
         <v>4540</v>
       </c>
-      <c r="C918" s="1" t="s">
+      <c r="D918" s="1" t="s">
         <v>4541</v>
       </c>
-      <c r="D918" s="1" t="s">
+      <c r="E918" s="1" t="s">
         <v>4542</v>
       </c>
-      <c r="E918" s="1" t="s">
+      <c r="F918" s="1" t="s">
         <v>4543</v>
-      </c>
-      <c r="F918" s="1" t="s">
-        <v>4544</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
@@ -37060,19 +37060,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B919" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C919" s="1" t="s">
         <v>4545</v>
       </c>
-      <c r="C919" s="1" t="s">
+      <c r="D919" s="1" t="s">
         <v>4546</v>
       </c>
-      <c r="D919" s="1" t="s">
+      <c r="E919" s="1" t="s">
         <v>4547</v>
       </c>
-      <c r="E919" s="1" t="s">
+      <c r="F919" s="1" t="s">
         <v>4548</v>
-      </c>
-      <c r="F919" s="1" t="s">
-        <v>4549</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
@@ -37081,10 +37081,10 @@
         <v>cards.allies</v>
       </c>
       <c r="B920" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="C920" s="1" t="s">
         <v>4550</v>
-      </c>
-      <c r="C920" s="1" t="s">
-        <v>4551</v>
       </c>
       <c r="F920" s="1" t="s">
         <v>4290</v>
@@ -37096,19 +37096,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B921" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C921" s="1" t="s">
         <v>4552</v>
       </c>
-      <c r="C921" s="1" t="s">
+      <c r="D921" s="1" t="s">
         <v>4553</v>
       </c>
-      <c r="D921" s="1" t="s">
+      <c r="E921" s="1" t="s">
         <v>4554</v>
       </c>
-      <c r="E921" s="1" t="s">
+      <c r="F921" s="1" t="s">
         <v>4555</v>
-      </c>
-      <c r="F921" s="1" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
@@ -37117,19 +37117,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B922" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C922" s="1" t="s">
         <v>4557</v>
       </c>
-      <c r="C922" s="1" t="s">
+      <c r="D922" s="1" t="s">
         <v>4558</v>
       </c>
-      <c r="D922" s="1" t="s">
+      <c r="E922" s="1" t="s">
         <v>4559</v>
       </c>
-      <c r="E922" s="1" t="s">
+      <c r="F922" s="1" t="s">
         <v>4560</v>
-      </c>
-      <c r="F922" s="1" t="s">
-        <v>4561</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
@@ -37138,19 +37138,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B923" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C923" s="1" t="s">
         <v>4562</v>
       </c>
-      <c r="C923" s="1" t="s">
+      <c r="D923" s="1" t="s">
         <v>4563</v>
       </c>
-      <c r="D923" s="1" t="s">
+      <c r="E923" s="1" t="s">
         <v>4564</v>
       </c>
-      <c r="E923" s="1" t="s">
+      <c r="F923" s="1" t="s">
         <v>4565</v>
-      </c>
-      <c r="F923" s="1" t="s">
-        <v>4566</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
@@ -37159,19 +37159,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B924" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C924" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="C924" s="1" t="s">
+      <c r="D924" s="1" t="s">
         <v>4568</v>
       </c>
-      <c r="D924" s="1" t="s">
+      <c r="E924" s="1" t="s">
         <v>4569</v>
       </c>
-      <c r="E924" s="1" t="s">
+      <c r="F924" s="1" t="s">
         <v>4570</v>
-      </c>
-      <c r="F924" s="1" t="s">
-        <v>4571</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
@@ -37180,10 +37180,10 @@
         <v>cards.allies</v>
       </c>
       <c r="B925" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C925" s="1" t="s">
         <v>4572</v>
-      </c>
-      <c r="C925" s="1" t="s">
-        <v>4573</v>
       </c>
       <c r="F925" s="1" t="s">
         <v>4295</v>
@@ -37195,19 +37195,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B926" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C926" s="1" t="s">
         <v>4574</v>
       </c>
-      <c r="C926" s="1" t="s">
+      <c r="D926" s="1" t="s">
+        <v>4574</v>
+      </c>
+      <c r="E926" s="1" t="s">
         <v>4575</v>
       </c>
-      <c r="D926" s="1" t="s">
-        <v>4575</v>
-      </c>
-      <c r="E926" s="1" t="s">
+      <c r="F926" s="1" t="s">
         <v>4576</v>
-      </c>
-      <c r="F926" s="1" t="s">
-        <v>4577</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
@@ -37216,19 +37216,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B927" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C927" s="1" t="s">
         <v>4578</v>
       </c>
-      <c r="C927" s="1" t="s">
+      <c r="D927" s="1" t="s">
         <v>4579</v>
       </c>
-      <c r="D927" s="1" t="s">
+      <c r="E927" s="1" t="s">
         <v>4580</v>
       </c>
-      <c r="E927" s="1" t="s">
-        <v>4581</v>
-      </c>
       <c r="F927" s="1" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
@@ -37237,19 +37237,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B928" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C928" s="1" t="s">
         <v>4582</v>
       </c>
-      <c r="C928" s="1" t="s">
+      <c r="D928" s="1" t="s">
         <v>4583</v>
       </c>
-      <c r="D928" s="1" t="s">
+      <c r="E928" s="1" t="s">
         <v>4584</v>
       </c>
-      <c r="E928" s="1" t="s">
+      <c r="F928" s="1" t="s">
         <v>4585</v>
-      </c>
-      <c r="F928" s="1" t="s">
-        <v>4586</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
@@ -37258,19 +37258,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B929" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C929" s="1" t="s">
         <v>4587</v>
       </c>
-      <c r="C929" s="1" t="s">
+      <c r="D929" s="1" t="s">
         <v>4588</v>
       </c>
-      <c r="D929" s="1" t="s">
+      <c r="E929" s="1" t="s">
         <v>4589</v>
       </c>
-      <c r="E929" s="1" t="s">
+      <c r="F929" s="1" t="s">
         <v>4590</v>
-      </c>
-      <c r="F929" s="1" t="s">
-        <v>4591</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
@@ -37279,13 +37279,13 @@
         <v>cards.allies</v>
       </c>
       <c r="B930" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C930" s="1" t="s">
         <v>4592</v>
       </c>
-      <c r="C930" s="1" t="s">
-        <v>4593</v>
-      </c>
       <c r="F930" s="1" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
@@ -37294,19 +37294,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B931" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C931" s="1" t="s">
         <v>4594</v>
       </c>
-      <c r="C931" s="1" t="s">
+      <c r="D931" s="1" t="s">
         <v>4595</v>
       </c>
-      <c r="D931" s="1" t="s">
+      <c r="E931" s="1" t="s">
         <v>4596</v>
       </c>
-      <c r="E931" s="1" t="s">
+      <c r="F931" s="1" t="s">
         <v>4597</v>
-      </c>
-      <c r="F931" s="1" t="s">
-        <v>4598</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.25">
@@ -37315,19 +37315,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B932" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="C932" s="1" t="s">
         <v>4599</v>
       </c>
-      <c r="C932" s="1" t="s">
+      <c r="D932" s="1" t="s">
         <v>4600</v>
       </c>
-      <c r="D932" s="1" t="s">
+      <c r="E932" s="1" t="s">
         <v>4601</v>
       </c>
-      <c r="E932" s="1" t="s">
-        <v>4602</v>
-      </c>
       <c r="F932" s="1" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
@@ -37336,19 +37336,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B933" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C933" s="1" t="s">
         <v>4603</v>
       </c>
-      <c r="C933" s="1" t="s">
+      <c r="D933" s="1" t="s">
         <v>4604</v>
       </c>
-      <c r="D933" s="1" t="s">
+      <c r="E933" s="1" t="s">
         <v>4605</v>
       </c>
-      <c r="E933" s="1" t="s">
+      <c r="F933" s="1" t="s">
         <v>4606</v>
-      </c>
-      <c r="F933" s="1" t="s">
-        <v>4607</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
@@ -37357,19 +37357,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B934" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C934" s="1" t="s">
         <v>4608</v>
       </c>
-      <c r="C934" s="1" t="s">
+      <c r="D934" s="1" t="s">
         <v>4609</v>
       </c>
-      <c r="D934" s="1" t="s">
+      <c r="E934" s="1" t="s">
         <v>4610</v>
       </c>
-      <c r="E934" s="1" t="s">
+      <c r="F934" s="1" t="s">
         <v>4611</v>
-      </c>
-      <c r="F934" s="1" t="s">
-        <v>4612</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
@@ -37378,10 +37378,10 @@
         <v>cards.allies</v>
       </c>
       <c r="B935" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C935" s="1" t="s">
         <v>4613</v>
-      </c>
-      <c r="C935" s="1" t="s">
-        <v>4614</v>
       </c>
       <c r="F935" s="1" t="s">
         <v>4280</v>
@@ -37393,19 +37393,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B936" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C936" s="1" t="s">
         <v>4615</v>
       </c>
-      <c r="C936" s="1" t="s">
+      <c r="D936" s="1" t="s">
         <v>4616</v>
       </c>
-      <c r="D936" s="1" t="s">
+      <c r="E936" s="1" t="s">
         <v>4617</v>
       </c>
-      <c r="E936" s="1" t="s">
+      <c r="F936" s="1" t="s">
         <v>4618</v>
-      </c>
-      <c r="F936" s="1" t="s">
-        <v>4619</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
@@ -37414,19 +37414,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B937" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C937" s="1" t="s">
         <v>4620</v>
       </c>
-      <c r="C937" s="1" t="s">
+      <c r="D937" s="1" t="s">
         <v>4621</v>
       </c>
-      <c r="D937" s="1" t="s">
+      <c r="E937" s="1" t="s">
         <v>4622</v>
       </c>
-      <c r="E937" s="1" t="s">
+      <c r="F937" s="1" t="s">
         <v>4623</v>
-      </c>
-      <c r="F937" s="1" t="s">
-        <v>4624</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
@@ -37435,19 +37435,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B938" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C938" s="1" t="s">
         <v>4625</v>
       </c>
-      <c r="C938" s="1" t="s">
+      <c r="D938" s="1" t="s">
         <v>4626</v>
       </c>
-      <c r="D938" s="1" t="s">
+      <c r="E938" s="1" t="s">
         <v>4627</v>
       </c>
-      <c r="E938" s="1" t="s">
+      <c r="F938" s="1" t="s">
         <v>4628</v>
-      </c>
-      <c r="F938" s="1" t="s">
-        <v>4629</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
@@ -37456,19 +37456,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B939" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C939" s="1" t="s">
         <v>4630</v>
       </c>
-      <c r="C939" s="1" t="s">
+      <c r="D939" s="1" t="s">
         <v>4631</v>
       </c>
-      <c r="D939" s="1" t="s">
+      <c r="E939" s="1" t="s">
         <v>4632</v>
       </c>
-      <c r="E939" s="1" t="s">
+      <c r="F939" s="1" t="s">
         <v>4633</v>
-      </c>
-      <c r="F939" s="1" t="s">
-        <v>4634</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.25">
@@ -37477,13 +37477,13 @@
         <v>cards.allies</v>
       </c>
       <c r="B940" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C940" s="1" t="s">
         <v>4635</v>
       </c>
-      <c r="C940" s="1" t="s">
-        <v>4636</v>
-      </c>
       <c r="F940" s="1" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.25">
@@ -37492,19 +37492,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B941" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C941" s="1" t="s">
         <v>4637</v>
       </c>
-      <c r="C941" s="1" t="s">
+      <c r="D941" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="E941" s="1" t="s">
         <v>4638</v>
       </c>
-      <c r="D941" s="1" t="s">
-        <v>4638</v>
-      </c>
-      <c r="E941" s="1" t="s">
+      <c r="F941" s="1" t="s">
         <v>4639</v>
-      </c>
-      <c r="F941" s="1" t="s">
-        <v>4640</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
@@ -37513,19 +37513,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B942" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C942" s="1" t="s">
         <v>4641</v>
       </c>
-      <c r="C942" s="1" t="s">
+      <c r="D942" s="1" t="s">
         <v>4642</v>
       </c>
-      <c r="D942" s="1" t="s">
+      <c r="E942" s="1" t="s">
         <v>4643</v>
       </c>
-      <c r="E942" s="1" t="s">
+      <c r="F942" s="1" t="s">
         <v>4644</v>
-      </c>
-      <c r="F942" s="1" t="s">
-        <v>4645</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
@@ -37534,19 +37534,19 @@
         <v>cards.allies</v>
       </c>
       <c r="B943" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C943" s="1" t="s">
         <v>4646</v>
       </c>
-      <c r="C943" s="1" t="s">
+      <c r="D943" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="D943" s="1" t="s">
+      <c r="E943" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="E943" s="1" t="s">
+      <c r="F943" s="1" t="s">
         <v>4649</v>
-      </c>
-      <c r="F943" s="1" t="s">
-        <v>4650</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.25">
@@ -37555,35 +37555,35 @@
         <v>cards.allies</v>
       </c>
       <c r="B944" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C944" s="1" t="s">
         <v>4651</v>
       </c>
-      <c r="C944" s="1" t="s">
+      <c r="D944" s="1" t="s">
         <v>4652</v>
       </c>
-      <c r="D944" s="1" t="s">
+      <c r="E944" s="1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="F944" s="1" t="s">
         <v>4653</v>
-      </c>
-      <c r="E944" s="1" t="s">
-        <v>4652</v>
-      </c>
-      <c r="F944" s="1" t="s">
-        <v>4654</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B946" s="1" t="str">
         <f t="shared" ref="B946:B977" si="15">"plunder_"&amp;SUBSTITUTE(SUBSTITUTE(LOWER(C946)," ",""),"'","")</f>
         <v>plunder_abundance</v>
       </c>
       <c r="C946" s="2" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
       <c r="D946" s="2"/>
       <c r="E946" s="1" t="s">
-        <v>4657</v>
+        <v>4656</v>
       </c>
       <c r="F946" s="1" t="s">
         <v>513</v>
@@ -37591,1310 +37591,1310 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B947" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_buriedtreasure</v>
       </c>
       <c r="C947" s="2" t="s">
-        <v>4658</v>
+        <v>4657</v>
       </c>
       <c r="D947" s="2"/>
       <c r="E947" s="1" t="s">
+        <v>4658</v>
+      </c>
+      <c r="F947" s="1" t="s">
         <v>4659</v>
-      </c>
-      <c r="F947" s="1" t="s">
-        <v>4660</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B948" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_cabinboy</v>
       </c>
       <c r="C948" s="2" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="D948" s="2"/>
       <c r="E948" s="1" t="s">
+        <v>4661</v>
+      </c>
+      <c r="F948" s="1" t="s">
         <v>4662</v>
-      </c>
-      <c r="F948" s="1" t="s">
-        <v>4663</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B949" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_cage</v>
       </c>
       <c r="C949" s="2" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
       <c r="D949" s="2"/>
       <c r="E949" s="1" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="F949" s="1" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B950" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_crew</v>
       </c>
       <c r="C950" s="2" t="s">
-        <v>4666</v>
+        <v>4665</v>
       </c>
       <c r="D950" s="2"/>
       <c r="E950" s="1" t="s">
+        <v>4666</v>
+      </c>
+      <c r="F950" s="1" t="s">
         <v>4667</v>
-      </c>
-      <c r="F950" s="1" t="s">
-        <v>4668</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B951" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_crucible</v>
       </c>
       <c r="C951" s="2" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="D951" s="2"/>
       <c r="E951" s="1" t="s">
+        <v>4669</v>
+      </c>
+      <c r="F951" s="1" t="s">
         <v>4670</v>
-      </c>
-      <c r="F951" s="1" t="s">
-        <v>4671</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B952" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_cutthroat</v>
       </c>
       <c r="C952" s="2" t="s">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="D952" s="2"/>
       <c r="E952" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="F952" s="1" t="s">
         <v>4673</v>
-      </c>
-      <c r="F952" s="1" t="s">
-        <v>4674</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B953" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_enlarge</v>
       </c>
       <c r="C953" s="2" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="D953" s="2"/>
       <c r="E953" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="F953" s="1" t="s">
         <v>4676</v>
-      </c>
-      <c r="F953" s="1" t="s">
-        <v>4677</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B954" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_figurine</v>
       </c>
       <c r="C954" s="2" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="D954" s="2"/>
       <c r="E954" s="1" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="F954" s="1" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B955" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_firstmate</v>
       </c>
       <c r="C955" s="2" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="D955" s="2"/>
       <c r="E955" s="1" t="s">
+        <v>4679</v>
+      </c>
+      <c r="F955" s="1" t="s">
         <v>4680</v>
-      </c>
-      <c r="F955" s="1" t="s">
-        <v>4681</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B956" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_flagship</v>
       </c>
       <c r="C956" s="2" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
       <c r="D956" s="2"/>
       <c r="E956" s="1" t="s">
+        <v>4682</v>
+      </c>
+      <c r="F956" s="1" t="s">
         <v>4683</v>
-      </c>
-      <c r="F956" s="1" t="s">
-        <v>4684</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B957" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_fortunehunter</v>
       </c>
       <c r="C957" s="2" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="D957" s="2"/>
       <c r="E957" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="F957" s="1" t="s">
         <v>4686</v>
-      </c>
-      <c r="F957" s="1" t="s">
-        <v>4687</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B958" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_frigate</v>
       </c>
       <c r="C958" s="2" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
       <c r="D958" s="2"/>
       <c r="E958" s="1" t="s">
+        <v>4688</v>
+      </c>
+      <c r="F958" s="1" t="s">
         <v>4689</v>
-      </c>
-      <c r="F958" s="1" t="s">
-        <v>4690</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B959" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_gondola</v>
       </c>
       <c r="C959" s="2" t="s">
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="D959" s="2"/>
       <c r="E959" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="F959" s="1" t="s">
         <v>4692</v>
-      </c>
-      <c r="F959" s="1" t="s">
-        <v>4693</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B960" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_grotto</v>
       </c>
       <c r="C960" s="2" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="D960" s="2"/>
       <c r="E960" s="1" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="F960" s="1" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B961" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_harborvillage</v>
       </c>
       <c r="C961" s="2" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="D961" s="2"/>
       <c r="E961" s="1" t="s">
+        <v>4696</v>
+      </c>
+      <c r="F961" s="1" t="s">
         <v>4697</v>
-      </c>
-      <c r="F961" s="1" t="s">
-        <v>4698</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B962" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_jewelledegg</v>
       </c>
       <c r="C962" s="2" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="D962" s="2"/>
       <c r="E962" s="1" t="s">
+        <v>4699</v>
+      </c>
+      <c r="F962" s="1" t="s">
         <v>4700</v>
-      </c>
-      <c r="F962" s="1" t="s">
-        <v>4701</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B963" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_kingscache</v>
       </c>
       <c r="C963" s="2" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="D963" s="2"/>
       <c r="E963" s="1" t="s">
+        <v>4702</v>
+      </c>
+      <c r="F963" s="1" t="s">
         <v>4703</v>
-      </c>
-      <c r="F963" s="1" t="s">
-        <v>4704</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B964" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_landingparty</v>
       </c>
       <c r="C964" s="2" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="D964" s="2"/>
       <c r="E964" s="1" t="s">
+        <v>4705</v>
+      </c>
+      <c r="F964" s="1" t="s">
         <v>4706</v>
-      </c>
-      <c r="F964" s="1" t="s">
-        <v>4707</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B965" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_longship</v>
       </c>
       <c r="C965" s="2" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="D965" s="2"/>
       <c r="E965" s="1" t="s">
+        <v>4708</v>
+      </c>
+      <c r="F965" s="1" t="s">
         <v>4709</v>
-      </c>
-      <c r="F965" s="1" t="s">
-        <v>4710</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B966" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_mapmaker</v>
       </c>
       <c r="C966" s="2" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="D966" s="2"/>
       <c r="E966" s="1" t="s">
+        <v>4711</v>
+      </c>
+      <c r="F966" s="1" t="s">
         <v>4712</v>
-      </c>
-      <c r="F966" s="1" t="s">
-        <v>4713</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B967" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_maroon</v>
       </c>
       <c r="C967" s="2" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="D967" s="2"/>
       <c r="E967" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="F967" s="1" t="s">
         <v>4715</v>
-      </c>
-      <c r="F967" s="1" t="s">
-        <v>4716</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B968" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_miningroad</v>
       </c>
       <c r="C968" s="2" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="D968" s="2"/>
       <c r="E968" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="F968" s="1" t="s">
         <v>4718</v>
-      </c>
-      <c r="F968" s="1" t="s">
-        <v>4719</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B969" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_pendant</v>
       </c>
       <c r="C969" s="2" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="D969" s="2"/>
       <c r="E969" s="1" t="s">
+        <v>4720</v>
+      </c>
+      <c r="F969" s="1" t="s">
         <v>4721</v>
-      </c>
-      <c r="F969" s="1" t="s">
-        <v>4722</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B970" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_pickaxe</v>
       </c>
       <c r="C970" s="2" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="D970" s="2"/>
       <c r="E970" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="F970" s="1" t="s">
         <v>4724</v>
-      </c>
-      <c r="F970" s="1" t="s">
-        <v>4725</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B971" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_pilgrim</v>
       </c>
       <c r="C971" s="2" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="D971" s="2"/>
       <c r="E971" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="F971" s="1" t="s">
         <v>4727</v>
-      </c>
-      <c r="F971" s="1" t="s">
-        <v>4728</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B972" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_quartermaster</v>
       </c>
       <c r="C972" s="2" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="D972" s="2"/>
       <c r="E972" s="1" t="s">
+        <v>4729</v>
+      </c>
+      <c r="F972" s="1" t="s">
         <v>4730</v>
-      </c>
-      <c r="F972" s="1" t="s">
-        <v>4731</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B973" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_rope</v>
       </c>
       <c r="C973" s="2" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="D973" s="2"/>
       <c r="E973" s="1" t="s">
+        <v>4732</v>
+      </c>
+      <c r="F973" s="1" t="s">
         <v>4733</v>
-      </c>
-      <c r="F973" s="1" t="s">
-        <v>4734</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B974" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_sackofloot</v>
       </c>
       <c r="C974" s="2" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="D974" s="2"/>
       <c r="E974" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="F974" s="1" t="s">
         <v>4736</v>
-      </c>
-      <c r="F974" s="1" t="s">
-        <v>4737</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B975" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_search</v>
       </c>
       <c r="C975" s="2" t="s">
-        <v>4738</v>
+        <v>4737</v>
       </c>
       <c r="D975" s="2"/>
       <c r="E975" s="1" t="s">
+        <v>4738</v>
+      </c>
+      <c r="F975" s="1" t="s">
         <v>4739</v>
-      </c>
-      <c r="F975" s="1" t="s">
-        <v>4740</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B976" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_secludedshrine</v>
       </c>
       <c r="C976" s="2" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="D976" s="2"/>
       <c r="E976" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="F976" s="1" t="s">
         <v>4742</v>
-      </c>
-      <c r="F976" s="1" t="s">
-        <v>4743</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B977" s="1" t="str">
         <f t="shared" si="15"/>
         <v>plunder_shaman</v>
       </c>
       <c r="C977" s="2" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="D977" s="2"/>
       <c r="E977" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F977" s="1" t="s">
         <v>4745</v>
-      </c>
-      <c r="F977" s="1" t="s">
-        <v>4746</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B978" s="1" t="str">
-        <f t="shared" ref="B978:B1009" si="16">"plunder_"&amp;SUBSTITUTE(SUBSTITUTE(LOWER(C978)," ",""),"'","")</f>
+        <f t="shared" ref="B978:B1000" si="16">"plunder_"&amp;SUBSTITUTE(SUBSTITUTE(LOWER(C978)," ",""),"'","")</f>
         <v>plunder_silvermine</v>
       </c>
       <c r="C978" s="2" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="D978" s="2"/>
       <c r="E978" s="1" t="s">
+        <v>4747</v>
+      </c>
+      <c r="F978" s="1" t="s">
         <v>4748</v>
-      </c>
-      <c r="F978" s="1" t="s">
-        <v>4749</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B979" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_siren</v>
       </c>
       <c r="C979" s="2" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="D979" s="2"/>
       <c r="E979" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="F979" s="1" t="s">
         <v>4751</v>
-      </c>
-      <c r="F979" s="1" t="s">
-        <v>4752</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B980" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_stowaway</v>
       </c>
       <c r="C980" s="2" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="D980" s="2"/>
       <c r="E980" s="1" t="s">
+        <v>4753</v>
+      </c>
+      <c r="F980" s="1" t="s">
         <v>4754</v>
-      </c>
-      <c r="F980" s="1" t="s">
-        <v>4755</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B981" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_swampshacks</v>
       </c>
       <c r="C981" s="2" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="D981" s="2"/>
       <c r="E981" s="1" t="s">
+        <v>4756</v>
+      </c>
+      <c r="F981" s="1" t="s">
         <v>4757</v>
-      </c>
-      <c r="F981" s="1" t="s">
-        <v>4758</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B982" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_taskmaster</v>
       </c>
       <c r="C982" s="2" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="D982" s="2"/>
       <c r="E982" s="1" t="s">
+        <v>4759</v>
+      </c>
+      <c r="F982" s="1" t="s">
         <v>4760</v>
-      </c>
-      <c r="F982" s="1" t="s">
-        <v>4761</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B983" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_tools</v>
       </c>
       <c r="C983" s="2" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="D983" s="2"/>
       <c r="E983" s="1" t="s">
+        <v>4762</v>
+      </c>
+      <c r="F983" s="1" t="s">
         <v>4763</v>
-      </c>
-      <c r="F983" s="1" t="s">
-        <v>4764</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B984" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_trickster</v>
       </c>
       <c r="C984" s="2" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="D984" s="2"/>
       <c r="E984" s="1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="F984" s="1" t="s">
         <v>4766</v>
-      </c>
-      <c r="F984" s="1" t="s">
-        <v>4767</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B985" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_wealthyvillage</v>
       </c>
       <c r="C985" s="2" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="D985" s="2"/>
       <c r="E985" s="1" t="s">
+        <v>4768</v>
+      </c>
+      <c r="F985" s="1" t="s">
         <v>4769</v>
-      </c>
-      <c r="F985" s="1" t="s">
-        <v>4770</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B986" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_amphora</v>
       </c>
       <c r="C986" s="2" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="D986" s="2"/>
       <c r="E986" s="1" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="F986" s="1" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B987" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_doubloons</v>
       </c>
       <c r="C987" s="2" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="D987" s="2"/>
       <c r="E987" s="1" t="s">
+        <v>4773</v>
+      </c>
+      <c r="F987" s="1" t="s">
         <v>4774</v>
-      </c>
-      <c r="F987" s="1" t="s">
-        <v>4775</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B988" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_endlesschalice</v>
       </c>
       <c r="C988" s="2" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="D988" s="2"/>
       <c r="E988" s="1" t="s">
+        <v>4776</v>
+      </c>
+      <c r="F988" s="1" t="s">
         <v>4777</v>
-      </c>
-      <c r="F988" s="1" t="s">
-        <v>4778</v>
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B989" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_figurehead</v>
       </c>
       <c r="C989" s="2" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="D989" s="2"/>
       <c r="E989" s="1" t="s">
+        <v>4779</v>
+      </c>
+      <c r="F989" s="1" t="s">
         <v>4780</v>
-      </c>
-      <c r="F989" s="1" t="s">
-        <v>4781</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B990" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_hammer</v>
       </c>
       <c r="C990" s="2" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="D990" s="2"/>
       <c r="E990" s="1" t="s">
+        <v>4781</v>
+      </c>
+      <c r="F990" s="1" t="s">
         <v>4782</v>
-      </c>
-      <c r="F990" s="1" t="s">
-        <v>4783</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B991" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_insignia</v>
       </c>
       <c r="C991" s="2" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="D991" s="2"/>
       <c r="E991" s="1" t="s">
+        <v>4784</v>
+      </c>
+      <c r="F991" s="1" t="s">
         <v>4785</v>
-      </c>
-      <c r="F991" s="1" t="s">
-        <v>4786</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B992" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_jewels</v>
       </c>
       <c r="C992" s="2" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="D992" s="2"/>
       <c r="E992" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="F992" s="1" t="s">
         <v>4788</v>
-      </c>
-      <c r="F992" s="1" t="s">
-        <v>4789</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B993" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_orb</v>
       </c>
       <c r="C993" s="2" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="D993" s="2"/>
       <c r="E993" s="1" t="s">
+        <v>4790</v>
+      </c>
+      <c r="F993" s="1" t="s">
         <v>4791</v>
-      </c>
-      <c r="F993" s="1" t="s">
-        <v>4792</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B994" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_prizegoat</v>
       </c>
       <c r="C994" s="2" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="D994" s="2"/>
       <c r="E994" s="1" t="s">
+        <v>4793</v>
+      </c>
+      <c r="F994" s="1" t="s">
         <v>4794</v>
-      </c>
-      <c r="F994" s="1" t="s">
-        <v>4795</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B995" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_puzzlebox</v>
       </c>
       <c r="C995" s="2" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="D995" s="2"/>
       <c r="E995" s="1" t="s">
+        <v>4796</v>
+      </c>
+      <c r="F995" s="1" t="s">
         <v>4797</v>
-      </c>
-      <c r="F995" s="1" t="s">
-        <v>4798</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B996" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_sextant</v>
       </c>
       <c r="C996" s="2" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="D996" s="2"/>
       <c r="E996" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="F996" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B997" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_shield</v>
       </c>
       <c r="C997" s="2" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="D997" s="2"/>
       <c r="E997" s="1" t="s">
+        <v>4800</v>
+      </c>
+      <c r="F997" s="1" t="s">
         <v>4801</v>
-      </c>
-      <c r="F997" s="1" t="s">
-        <v>4802</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B998" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_spellscroll</v>
       </c>
       <c r="C998" s="2" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="D998" s="2"/>
       <c r="E998" s="1" t="s">
+        <v>4803</v>
+      </c>
+      <c r="F998" s="1" t="s">
         <v>4804</v>
-      </c>
-      <c r="F998" s="1" t="s">
-        <v>4805</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B999" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_staff</v>
       </c>
       <c r="C999" s="2" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="D999" s="2"/>
       <c r="E999" s="1" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F999" s="1" t="s">
         <v>4807</v>
-      </c>
-      <c r="F999" s="1" t="s">
-        <v>4808</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1000" s="1" t="str">
         <f t="shared" si="16"/>
         <v>plunder_sword</v>
       </c>
       <c r="C1000" s="2" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="D1000" s="2"/>
       <c r="E1000" s="1" t="s">
+        <v>4809</v>
+      </c>
+      <c r="F1000" s="1" t="s">
         <v>4810</v>
-      </c>
-      <c r="F1000" s="1" t="s">
-        <v>4811</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1001" s="1" t="str">
         <f t="shared" ref="B1001:B1015" si="17">"plunder_event_"&amp;SUBSTITUTE(SUBSTITUTE(LOWER(C1001)," ",""),"'","")</f>
         <v>plunder_event_bury</v>
       </c>
       <c r="C1001" s="2" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
       <c r="D1001" s="2"/>
       <c r="E1001" s="1" t="s">
+        <v>4812</v>
+      </c>
+      <c r="F1001" s="1" t="s">
         <v>4813</v>
-      </c>
-      <c r="F1001" s="1" t="s">
-        <v>4814</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1002" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_avoid</v>
       </c>
       <c r="C1002" s="2" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="D1002" s="2"/>
       <c r="E1002" s="1" t="s">
+        <v>4815</v>
+      </c>
+      <c r="F1002" s="1" t="s">
         <v>4816</v>
-      </c>
-      <c r="F1002" s="1" t="s">
-        <v>4817</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1003" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_deliver</v>
       </c>
       <c r="C1003" s="2" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="D1003" s="2"/>
       <c r="E1003" s="1" t="s">
+        <v>4818</v>
+      </c>
+      <c r="F1003" s="1" t="s">
         <v>4819</v>
-      </c>
-      <c r="F1003" s="1" t="s">
-        <v>4820</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1004" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_peril</v>
       </c>
       <c r="C1004" s="2" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="D1004" s="2"/>
       <c r="E1004" s="1" t="s">
+        <v>4821</v>
+      </c>
+      <c r="F1004" s="1" t="s">
         <v>4822</v>
-      </c>
-      <c r="F1004" s="1" t="s">
-        <v>4823</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1005" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_rush</v>
       </c>
       <c r="C1005" s="2" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="D1005" s="2"/>
       <c r="E1005" s="1" t="s">
+        <v>4824</v>
+      </c>
+      <c r="F1005" s="1" t="s">
         <v>4825</v>
-      </c>
-      <c r="F1005" s="1" t="s">
-        <v>4826</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1006" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_foray</v>
       </c>
       <c r="C1006" s="2" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
       <c r="D1006" s="2"/>
       <c r="E1006" s="1" t="s">
+        <v>4827</v>
+      </c>
+      <c r="F1006" s="1" t="s">
         <v>4828</v>
-      </c>
-      <c r="F1006" s="1" t="s">
-        <v>4829</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1007" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_launch</v>
       </c>
       <c r="C1007" s="2" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="D1007" s="2"/>
       <c r="E1007" s="1" t="s">
+        <v>4830</v>
+      </c>
+      <c r="F1007" s="1" t="s">
         <v>4831</v>
-      </c>
-      <c r="F1007" s="1" t="s">
-        <v>4832</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1008" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_mirror</v>
       </c>
       <c r="C1008" s="2" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="D1008" s="2"/>
       <c r="E1008" s="1" t="s">
+        <v>4833</v>
+      </c>
+      <c r="F1008" s="1" t="s">
         <v>4834</v>
-      </c>
-      <c r="F1008" s="1" t="s">
-        <v>4835</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1009" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_prepare</v>
       </c>
       <c r="C1009" s="2" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="D1009" s="2"/>
       <c r="E1009" s="1" t="s">
+        <v>4836</v>
+      </c>
+      <c r="F1009" s="1" t="s">
         <v>4837</v>
-      </c>
-      <c r="F1009" s="1" t="s">
-        <v>4838</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1010" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_scrounge</v>
       </c>
       <c r="C1010" s="2" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="D1010" s="2"/>
       <c r="E1010" s="1" t="s">
+        <v>4839</v>
+      </c>
+      <c r="F1010" s="1" t="s">
         <v>4840</v>
-      </c>
-      <c r="F1010" s="1" t="s">
-        <v>4841</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1011" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_journey</v>
       </c>
       <c r="C1011" s="2" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="D1011" s="2"/>
       <c r="E1011" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="F1011" s="1" t="s">
         <v>4843</v>
-      </c>
-      <c r="F1011" s="1" t="s">
-        <v>4844</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1012" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_maelstrom</v>
       </c>
       <c r="C1012" s="2" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="D1012" s="2"/>
       <c r="E1012" s="1" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
       <c r="F1012" s="1" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1013" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_looting</v>
       </c>
       <c r="C1013" s="2" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="D1013" s="2"/>
       <c r="E1013" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="F1013" s="1" t="s">
         <v>4848</v>
-      </c>
-      <c r="F1013" s="1" t="s">
-        <v>4849</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1014" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_invasion</v>
       </c>
       <c r="C1014" s="2" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="D1014" s="2"/>
       <c r="E1014" s="1" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="F1014" s="1" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1015" s="1" t="str">
         <f t="shared" si="17"/>
         <v>plunder_event_prosper</v>
       </c>
       <c r="C1015" s="2" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="D1015" s="2"/>
       <c r="E1015" s="1" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="F1015" s="1" t="s">
         <v>596</v>
@@ -38902,287 +38902,287 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1016" s="1" t="str">
         <f t="shared" ref="B1016:B1030" si="18">"plunder_trait_"&amp;SUBSTITUTE(SUBSTITUTE(LOWER(C1016)," ",""),"'","")</f>
         <v>plunder_trait_cheap</v>
       </c>
       <c r="C1016" s="2" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="D1016" s="2"/>
       <c r="E1016" s="1" t="s">
+        <v>4853</v>
+      </c>
+      <c r="F1016" s="1" t="s">
         <v>4854</v>
-      </c>
-      <c r="F1016" s="1" t="s">
-        <v>4855</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1017" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_cursed</v>
       </c>
       <c r="C1017" s="2" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="D1017" s="2"/>
       <c r="E1017" s="1" t="s">
+        <v>4856</v>
+      </c>
+      <c r="F1017" s="1" t="s">
         <v>4857</v>
-      </c>
-      <c r="F1017" s="1" t="s">
-        <v>4858</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1018" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_fated</v>
       </c>
       <c r="C1018" s="2" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="D1018" s="2"/>
       <c r="E1018" s="1" t="s">
+        <v>4859</v>
+      </c>
+      <c r="F1018" s="1" t="s">
         <v>4860</v>
-      </c>
-      <c r="F1018" s="1" t="s">
-        <v>4861</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1019" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_fawning</v>
       </c>
       <c r="C1019" s="2" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
       <c r="D1019" s="2"/>
       <c r="E1019" s="1" t="s">
+        <v>4862</v>
+      </c>
+      <c r="F1019" s="1" t="s">
         <v>4863</v>
-      </c>
-      <c r="F1019" s="1" t="s">
-        <v>4864</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1020" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_friendly</v>
       </c>
       <c r="C1020" s="2" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="D1020" s="2"/>
       <c r="E1020" s="1" t="s">
+        <v>4865</v>
+      </c>
+      <c r="F1020" s="1" t="s">
         <v>4866</v>
-      </c>
-      <c r="F1020" s="1" t="s">
-        <v>4867</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1021" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_hasty</v>
       </c>
       <c r="C1021" s="2" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="D1021" s="2"/>
       <c r="E1021" s="1" t="s">
+        <v>4868</v>
+      </c>
+      <c r="F1021" s="1" t="s">
         <v>4869</v>
-      </c>
-      <c r="F1021" s="1" t="s">
-        <v>4870</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1022" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_inherited</v>
       </c>
       <c r="C1022" s="2" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="D1022" s="2"/>
       <c r="E1022" s="1" t="s">
+        <v>4871</v>
+      </c>
+      <c r="F1022" s="1" t="s">
         <v>4872</v>
-      </c>
-      <c r="F1022" s="1" t="s">
-        <v>4873</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1023" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_inspiring</v>
       </c>
       <c r="C1023" s="2" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="D1023" s="2"/>
       <c r="E1023" s="1" t="s">
+        <v>4874</v>
+      </c>
+      <c r="F1023" s="1" t="s">
         <v>4875</v>
-      </c>
-      <c r="F1023" s="1" t="s">
-        <v>4876</v>
       </c>
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1024" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_nearby</v>
       </c>
       <c r="C1024" s="2" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="D1024" s="2"/>
       <c r="E1024" s="1" t="s">
+        <v>4877</v>
+      </c>
+      <c r="F1024" s="1" t="s">
         <v>4878</v>
-      </c>
-      <c r="F1024" s="1" t="s">
-        <v>4879</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1025" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_patient</v>
       </c>
       <c r="C1025" s="2" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="D1025" s="2"/>
       <c r="E1025" s="1" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="F1025" s="1" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1026" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_pious</v>
       </c>
       <c r="C1026" s="2" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="D1026" s="2"/>
       <c r="E1026" s="1" t="s">
+        <v>4882</v>
+      </c>
+      <c r="F1026" s="1" t="s">
         <v>4883</v>
-      </c>
-      <c r="F1026" s="1" t="s">
-        <v>4884</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1027" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_reckless</v>
       </c>
       <c r="C1027" s="2" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="D1027" s="2"/>
       <c r="E1027" s="1" t="s">
+        <v>4885</v>
+      </c>
+      <c r="F1027" s="1" t="s">
         <v>4886</v>
-      </c>
-      <c r="F1027" s="1" t="s">
-        <v>4887</v>
       </c>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1028" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_rich</v>
       </c>
       <c r="C1028" s="2" t="s">
-        <v>4888</v>
+        <v>4887</v>
       </c>
       <c r="D1028" s="2"/>
       <c r="E1028" s="1" t="s">
+        <v>4888</v>
+      </c>
+      <c r="F1028" s="1" t="s">
         <v>4889</v>
-      </c>
-      <c r="F1028" s="1" t="s">
-        <v>4890</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1029" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_shy</v>
       </c>
       <c r="C1029" s="2" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
       <c r="D1029" s="2"/>
       <c r="E1029" s="1" t="s">
+        <v>4891</v>
+      </c>
+      <c r="F1029" s="1" t="s">
         <v>4892</v>
-      </c>
-      <c r="F1029" s="1" t="s">
-        <v>4893</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B1030" s="1" t="str">
         <f t="shared" si="18"/>
         <v>plunder_trait_tireless</v>
       </c>
       <c r="C1030" s="2" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
       <c r="D1030" s="2"/>
       <c r="E1030" s="1" t="s">
+        <v>4894</v>
+      </c>
+      <c r="F1030" s="1" t="s">
         <v>4895</v>
-      </c>
-      <c r="F1030" s="1" t="s">
-        <v>4896</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
@@ -39191,7 +39191,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="C1032" s="1" t="s">
         <v>1679</v>
@@ -39218,7 +39218,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>4898</v>
+        <v>4897</v>
       </c>
       <c r="C1033" s="1" t="s">
         <v>1687</v>
@@ -39245,7 +39245,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="C1034" s="1" t="s">
         <v>1695</v>
@@ -39272,7 +39272,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
       <c r="C1035" s="1" t="s">
         <v>1703</v>
@@ -39299,7 +39299,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="C1036" s="1" t="s">
         <v>1709</v>
@@ -39326,7 +39326,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
       <c r="C1037" s="1" t="s">
         <v>1717</v>
@@ -39353,7 +39353,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="C1038" s="1" t="s">
         <v>1725</v>
@@ -39380,7 +39380,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1039" s="1" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
       <c r="C1039" s="1" t="s">
         <v>1733</v>
@@ -39407,7 +39407,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>4905</v>
+        <v>4904</v>
       </c>
       <c r="C1040" s="1" t="s">
         <v>1741</v>
@@ -39434,7 +39434,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1041" s="1" t="s">
-        <v>4906</v>
+        <v>4905</v>
       </c>
       <c r="C1041" s="1" t="s">
         <v>1746</v>
@@ -39461,7 +39461,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1042" s="1" t="s">
-        <v>4907</v>
+        <v>4906</v>
       </c>
       <c r="C1042" s="1" t="s">
         <v>584</v>
@@ -39488,7 +39488,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1043" s="1" t="s">
-        <v>4908</v>
+        <v>4907</v>
       </c>
       <c r="C1043" s="1" t="s">
         <v>1758</v>
@@ -39515,7 +39515,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1044" s="1" t="s">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="C1044" s="1" t="s">
         <v>1766</v>
@@ -39542,7 +39542,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1045" s="1" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="C1045" s="1" t="s">
         <v>1774</v>
@@ -39557,7 +39557,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>4911</v>
+        <v>4910</v>
       </c>
       <c r="C1046" s="1" t="s">
         <v>1778</v>
@@ -39572,7 +39572,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
       <c r="C1047" s="1" t="s">
         <v>1782</v>
@@ -39587,7 +39587,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="C1048" s="1" t="s">
         <v>1786</v>
@@ -39602,13 +39602,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1049" s="1" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
       <c r="C1049" s="1" t="s">
         <v>1790</v>
       </c>
       <c r="F1049" s="1" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
@@ -39617,7 +39617,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
       <c r="C1050" s="1" t="s">
         <v>2352</v>
@@ -39641,7 +39641,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1051" s="1" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
       <c r="C1051" s="1" t="s">
         <v>2358</v>
@@ -39665,7 +39665,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1052" s="1" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="C1052" s="1" t="s">
         <v>2364</v>
@@ -39689,7 +39689,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1053" s="1" t="s">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="C1053" s="1" t="s">
         <v>2370</v>
@@ -39713,7 +39713,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="C1054" s="1" t="s">
         <v>2376</v>
@@ -39737,7 +39737,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1055" s="1" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="C1055" s="1" t="s">
         <v>2381</v>
@@ -39761,7 +39761,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1056" s="1" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="C1056" s="1" t="s">
         <v>2387</v>
@@ -39785,7 +39785,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1057" s="1" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="C1057" s="1" t="s">
         <v>2393</v>
@@ -39809,7 +39809,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="C1058" s="1" t="s">
         <v>2399</v>
@@ -39833,7 +39833,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>4925</v>
+        <v>4924</v>
       </c>
       <c r="C1059" s="1" t="s">
         <v>2405</v>
@@ -39857,7 +39857,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="C1060" s="1" t="s">
         <v>2409</v>
@@ -39881,7 +39881,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1061" s="1" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="C1061" s="1" t="s">
         <v>2415</v>
@@ -39905,7 +39905,7 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>4928</v>
+        <v>4927</v>
       </c>
       <c r="C1062" s="1" t="s">
         <v>2421</v>
@@ -39929,13 +39929,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1063" s="1" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C1063" s="1" t="s">
         <v>4929</v>
       </c>
-      <c r="C1063" s="1" t="s">
+      <c r="F1063" s="1" t="s">
         <v>4930</v>
-      </c>
-      <c r="F1063" s="1" t="s">
-        <v>4931</v>
       </c>
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
@@ -39944,13 +39944,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1064" s="1" t="s">
+        <v>4931</v>
+      </c>
+      <c r="C1064" s="1" t="s">
         <v>4932</v>
       </c>
-      <c r="C1064" s="1" t="s">
+      <c r="F1064" s="1" t="s">
         <v>4933</v>
-      </c>
-      <c r="F1064" s="1" t="s">
-        <v>4934</v>
       </c>
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
@@ -39959,13 +39959,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1065" s="1" t="s">
+        <v>4934</v>
+      </c>
+      <c r="C1065" s="1" t="s">
         <v>4935</v>
       </c>
-      <c r="C1065" s="1" t="s">
+      <c r="F1065" s="1" t="s">
         <v>4936</v>
-      </c>
-      <c r="F1065" s="1" t="s">
-        <v>4937</v>
       </c>
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
@@ -39974,13 +39974,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1066" s="1" t="s">
+        <v>4937</v>
+      </c>
+      <c r="C1066" s="1" t="s">
         <v>4938</v>
       </c>
-      <c r="C1066" s="1" t="s">
+      <c r="F1066" s="1" t="s">
         <v>4939</v>
-      </c>
-      <c r="F1066" s="1" t="s">
-        <v>4940</v>
       </c>
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
@@ -39989,13 +39989,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1067" s="1" t="s">
+        <v>4940</v>
+      </c>
+      <c r="C1067" s="1" t="s">
         <v>4941</v>
       </c>
-      <c r="C1067" s="1" t="s">
+      <c r="F1067" s="1" t="s">
         <v>4942</v>
-      </c>
-      <c r="F1067" s="1" t="s">
-        <v>4943</v>
       </c>
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
@@ -40004,13 +40004,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1068" s="1" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C1068" s="1" t="s">
         <v>4944</v>
       </c>
-      <c r="C1068" s="1" t="s">
+      <c r="F1068" s="1" t="s">
         <v>4945</v>
-      </c>
-      <c r="F1068" s="1" t="s">
-        <v>4946</v>
       </c>
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
@@ -40019,13 +40019,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1069" s="1" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C1069" s="1" t="s">
         <v>4947</v>
       </c>
-      <c r="C1069" s="1" t="s">
+      <c r="F1069" s="1" t="s">
         <v>4948</v>
-      </c>
-      <c r="F1069" s="1" t="s">
-        <v>4949</v>
       </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
@@ -40034,13 +40034,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1070" s="1" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C1070" s="1" t="s">
         <v>4950</v>
       </c>
-      <c r="C1070" s="1" t="s">
+      <c r="F1070" s="1" t="s">
         <v>4951</v>
-      </c>
-      <c r="F1070" s="1" t="s">
-        <v>4952</v>
       </c>
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
@@ -40049,13 +40049,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1071" s="1" t="s">
+        <v>4952</v>
+      </c>
+      <c r="C1071" s="1" t="s">
         <v>4953</v>
       </c>
-      <c r="C1071" s="1" t="s">
+      <c r="F1071" s="1" t="s">
         <v>4954</v>
-      </c>
-      <c r="F1071" s="1" t="s">
-        <v>4955</v>
       </c>
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
@@ -40064,13 +40064,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1072" s="1" t="s">
+        <v>4955</v>
+      </c>
+      <c r="C1072" s="1" t="s">
         <v>4956</v>
       </c>
-      <c r="C1072" s="1" t="s">
+      <c r="F1072" s="1" t="s">
         <v>4957</v>
-      </c>
-      <c r="F1072" s="1" t="s">
-        <v>4958</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
@@ -40079,13 +40079,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1073" s="1" t="s">
+        <v>4958</v>
+      </c>
+      <c r="C1073" s="1" t="s">
         <v>4959</v>
       </c>
-      <c r="C1073" s="1" t="s">
+      <c r="F1073" s="1" t="s">
         <v>4960</v>
-      </c>
-      <c r="F1073" s="1" t="s">
-        <v>4961</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
@@ -40094,13 +40094,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1074" s="1" t="s">
+        <v>4961</v>
+      </c>
+      <c r="C1074" s="1" t="s">
         <v>4962</v>
       </c>
-      <c r="C1074" s="1" t="s">
-        <v>4963</v>
-      </c>
       <c r="F1074" s="1" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
@@ -40109,13 +40109,13 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1075" s="1" t="s">
+        <v>4963</v>
+      </c>
+      <c r="C1075" s="1" t="s">
         <v>4964</v>
       </c>
-      <c r="C1075" s="1" t="s">
+      <c r="F1075" s="1" t="s">
         <v>4965</v>
-      </c>
-      <c r="F1075" s="1" t="s">
-        <v>4966</v>
       </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
@@ -40124,472 +40124,472 @@
         <v>cards.guildscornucopia</v>
       </c>
       <c r="B1076" s="1" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C1076" s="1" t="s">
         <v>4967</v>
       </c>
-      <c r="C1076" s="1" t="s">
+      <c r="F1076" s="1" t="s">
         <v>4968</v>
-      </c>
-      <c r="F1076" s="1" t="s">
-        <v>4969</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B1078" s="1" t="s">
         <v>4970</v>
       </c>
-      <c r="B1078" s="1" t="s">
+      <c r="C1078" s="1" t="s">
         <v>4971</v>
       </c>
-      <c r="C1078" s="1" t="s">
+      <c r="F1078" s="1" t="s">
         <v>4972</v>
-      </c>
-      <c r="F1078" s="1" t="s">
-        <v>4973</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1079" s="1" t="s">
+        <v>4973</v>
+      </c>
+      <c r="C1079" s="1" t="s">
         <v>4974</v>
       </c>
-      <c r="C1079" s="1" t="s">
+      <c r="F1079" s="1" t="s">
         <v>4975</v>
-      </c>
-      <c r="F1079" s="1" t="s">
-        <v>4976</v>
       </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1080" s="1" t="s">
+        <v>4976</v>
+      </c>
+      <c r="C1080" s="1" t="s">
         <v>4977</v>
       </c>
-      <c r="C1080" s="1" t="s">
+      <c r="F1080" s="1" t="s">
         <v>4978</v>
-      </c>
-      <c r="F1080" s="1" t="s">
-        <v>4979</v>
       </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1081" s="1" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C1081" s="1" t="s">
         <v>4980</v>
       </c>
-      <c r="C1081" s="1" t="s">
+      <c r="F1081" s="1" t="s">
         <v>4981</v>
-      </c>
-      <c r="F1081" s="1" t="s">
-        <v>4982</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1082" s="1" t="s">
+        <v>4982</v>
+      </c>
+      <c r="C1082" s="1" t="s">
         <v>4983</v>
       </c>
-      <c r="C1082" s="1" t="s">
+      <c r="F1082" s="1" t="s">
         <v>4984</v>
-      </c>
-      <c r="F1082" s="1" t="s">
-        <v>4985</v>
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1083" s="1" t="s">
+        <v>4985</v>
+      </c>
+      <c r="C1083" s="1" t="s">
         <v>4986</v>
       </c>
-      <c r="C1083" s="1" t="s">
-        <v>4987</v>
-      </c>
       <c r="F1083" s="1" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1084" s="1" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C1084" s="1" t="s">
         <v>4988</v>
       </c>
-      <c r="C1084" s="1" t="s">
+      <c r="F1084" s="1" t="s">
         <v>4989</v>
-      </c>
-      <c r="F1084" s="1" t="s">
-        <v>4990</v>
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1085" s="1" t="s">
+        <v>4990</v>
+      </c>
+      <c r="C1085" s="1" t="s">
         <v>4991</v>
       </c>
-      <c r="C1085" s="1" t="s">
+      <c r="F1085" s="1" t="s">
         <v>4992</v>
-      </c>
-      <c r="F1085" s="1" t="s">
-        <v>4993</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1086" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="C1086" s="1" t="s">
         <v>4994</v>
       </c>
-      <c r="C1086" s="1" t="s">
+      <c r="F1086" s="1" t="s">
         <v>4995</v>
-      </c>
-      <c r="F1086" s="1" t="s">
-        <v>4996</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1087" s="1" t="s">
+        <v>4996</v>
+      </c>
+      <c r="C1087" s="1" t="s">
         <v>4997</v>
       </c>
-      <c r="C1087" s="1" t="s">
-        <v>4998</v>
-      </c>
       <c r="F1087" s="1" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1088" s="1" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C1088" s="1" t="s">
         <v>4999</v>
       </c>
-      <c r="C1088" s="1" t="s">
+      <c r="F1088" s="1" t="s">
         <v>5000</v>
-      </c>
-      <c r="F1088" s="1" t="s">
-        <v>5001</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1089" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1089" s="1" t="s">
+        <v>5001</v>
+      </c>
+      <c r="C1089" s="1" t="s">
         <v>5002</v>
       </c>
-      <c r="C1089" s="1" t="s">
+      <c r="F1089" s="1" t="s">
         <v>5003</v>
-      </c>
-      <c r="F1089" s="1" t="s">
-        <v>5004</v>
       </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1090" s="1" t="s">
+        <v>5004</v>
+      </c>
+      <c r="C1090" s="1" t="s">
         <v>5005</v>
       </c>
-      <c r="C1090" s="1" t="s">
-        <v>5006</v>
-      </c>
       <c r="F1090" s="1" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1091" s="1" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C1091" s="1" t="s">
         <v>5007</v>
       </c>
-      <c r="C1091" s="1" t="s">
+      <c r="F1091" s="1" t="s">
         <v>5008</v>
-      </c>
-      <c r="F1091" s="1" t="s">
-        <v>5009</v>
       </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1092" s="1" t="s">
+        <v>5009</v>
+      </c>
+      <c r="C1092" s="1" t="s">
         <v>5010</v>
       </c>
-      <c r="C1092" s="1" t="s">
+      <c r="F1092" s="1" t="s">
         <v>5011</v>
-      </c>
-      <c r="F1092" s="1" t="s">
-        <v>5012</v>
       </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1093" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C1093" s="1" t="s">
         <v>5013</v>
       </c>
-      <c r="C1093" s="1" t="s">
+      <c r="F1093" s="1" t="s">
         <v>5014</v>
-      </c>
-      <c r="F1093" s="1" t="s">
-        <v>5015</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1094" s="1" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C1094" s="1" t="s">
         <v>5016</v>
       </c>
-      <c r="C1094" s="1" t="s">
+      <c r="F1094" s="1" t="s">
         <v>5017</v>
-      </c>
-      <c r="F1094" s="1" t="s">
-        <v>5018</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1095" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C1095" s="1" t="s">
         <v>5019</v>
       </c>
-      <c r="C1095" s="1" t="s">
+      <c r="F1095" s="1" t="s">
         <v>5020</v>
-      </c>
-      <c r="F1095" s="1" t="s">
-        <v>5021</v>
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1096" s="1" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C1096" s="1" t="s">
         <v>5022</v>
       </c>
-      <c r="C1096" s="1" t="s">
-        <v>5023</v>
-      </c>
       <c r="F1096" s="1" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1097" s="1" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C1097" s="1" t="s">
         <v>5024</v>
       </c>
-      <c r="C1097" s="1" t="s">
+      <c r="F1097" s="1" t="s">
         <v>5025</v>
-      </c>
-      <c r="F1097" s="1" t="s">
-        <v>5026</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1098" s="1" t="s">
+        <v>5026</v>
+      </c>
+      <c r="C1098" s="1" t="s">
         <v>5027</v>
       </c>
-      <c r="C1098" s="1" t="s">
+      <c r="F1098" s="1" t="s">
         <v>5028</v>
-      </c>
-      <c r="F1098" s="1" t="s">
-        <v>5029</v>
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1099" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C1099" s="1" t="s">
         <v>5030</v>
       </c>
-      <c r="C1099" s="1" t="s">
+      <c r="F1099" s="1" t="s">
         <v>5031</v>
-      </c>
-      <c r="F1099" s="1" t="s">
-        <v>5032</v>
       </c>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1100" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C1100" s="1" t="s">
         <v>5033</v>
       </c>
-      <c r="C1100" s="1" t="s">
+      <c r="F1100" s="1" t="s">
         <v>5034</v>
-      </c>
-      <c r="F1100" s="1" t="s">
-        <v>5035</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1101" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C1101" s="1" t="s">
         <v>5036</v>
       </c>
-      <c r="C1101" s="1" t="s">
-        <v>5037</v>
-      </c>
       <c r="F1101" s="1" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1102" s="1" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C1102" s="1" t="s">
         <v>5038</v>
       </c>
-      <c r="C1102" s="1" t="s">
+      <c r="F1102" s="1" t="s">
         <v>5039</v>
-      </c>
-      <c r="F1102" s="1" t="s">
-        <v>5040</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1103" s="1" t="s">
+        <v>5040</v>
+      </c>
+      <c r="C1103" s="1" t="s">
         <v>5041</v>
       </c>
-      <c r="C1103" s="1" t="s">
+      <c r="F1103" s="1" t="s">
         <v>5042</v>
-      </c>
-      <c r="F1103" s="1" t="s">
-        <v>5043</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1104" s="1" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C1104" s="1" t="s">
         <v>5044</v>
       </c>
-      <c r="C1104" s="1" t="s">
+      <c r="F1104" s="1" t="s">
         <v>5045</v>
-      </c>
-      <c r="F1104" s="1" t="s">
-        <v>5046</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1105" s="1" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C1105" s="1" t="s">
         <v>5047</v>
       </c>
-      <c r="C1105" s="1" t="s">
+      <c r="F1105" s="1" t="s">
         <v>5048</v>
-      </c>
-      <c r="F1105" s="1" t="s">
-        <v>5049</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1106" s="1" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C1106" s="1" t="s">
         <v>5050</v>
       </c>
-      <c r="C1106" s="1" t="s">
+      <c r="F1106" s="1" t="s">
         <v>5051</v>
-      </c>
-      <c r="F1106" s="1" t="s">
-        <v>5052</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1107" s="1" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C1107" s="1" t="s">
         <v>5053</v>
       </c>
-      <c r="C1107" s="1" t="s">
+      <c r="F1107" s="1" t="s">
         <v>5054</v>
-      </c>
-      <c r="F1107" s="1" t="s">
-        <v>5055</v>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1108" s="1" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C1108" s="1" t="s">
         <v>5056</v>
       </c>
-      <c r="C1108" s="1" t="s">
+      <c r="F1108" s="1" t="s">
         <v>5057</v>
-      </c>
-      <c r="F1108" s="1" t="s">
-        <v>5058</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1109" s="1" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C1109" s="1" t="s">
         <v>5059</v>
       </c>
-      <c r="C1109" s="1" t="s">
-        <v>5060</v>
-      </c>
       <c r="F1109" s="1" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1110" s="1" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C1110" s="1" t="s">
         <v>5061</v>
-      </c>
-      <c r="C1110" s="1" t="s">
-        <v>5062</v>
       </c>
       <c r="F1110" s="1" t="s">
         <v>2662</v>
@@ -40597,240 +40597,240 @@
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1111" s="1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="C1111" s="1" t="s">
         <v>5063</v>
       </c>
-      <c r="C1111" s="1" t="s">
+      <c r="F1111" s="1" t="s">
         <v>5064</v>
-      </c>
-      <c r="F1111" s="1" t="s">
-        <v>5065</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1112" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="C1112" s="1" t="s">
         <v>5066</v>
       </c>
-      <c r="C1112" s="1" t="s">
+      <c r="F1112" s="1" t="s">
         <v>5067</v>
-      </c>
-      <c r="F1112" s="1" t="s">
-        <v>5068</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1113" s="1" t="s">
+        <v>5068</v>
+      </c>
+      <c r="C1113" s="1" t="s">
         <v>5069</v>
       </c>
-      <c r="C1113" s="1" t="s">
+      <c r="F1113" s="1" t="s">
         <v>5070</v>
-      </c>
-      <c r="F1113" s="1" t="s">
-        <v>5071</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1114" s="1" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C1114" s="1" t="s">
         <v>5072</v>
       </c>
-      <c r="C1114" s="1" t="s">
+      <c r="F1114" s="1" t="s">
         <v>5073</v>
-      </c>
-      <c r="F1114" s="1" t="s">
-        <v>5074</v>
       </c>
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1115" s="1" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C1115" s="1" t="s">
         <v>5075</v>
       </c>
-      <c r="C1115" s="1" t="s">
+      <c r="F1115" s="1" t="s">
         <v>5076</v>
-      </c>
-      <c r="F1115" s="1" t="s">
-        <v>5077</v>
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1116" s="1" t="s">
+        <v>5077</v>
+      </c>
+      <c r="C1116" s="1" t="s">
         <v>5078</v>
       </c>
-      <c r="C1116" s="1" t="s">
+      <c r="F1116" s="1" t="s">
         <v>5079</v>
-      </c>
-      <c r="F1116" s="1" t="s">
-        <v>5080</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1117" s="1" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C1117" s="1" t="s">
         <v>5081</v>
       </c>
-      <c r="C1117" s="1" t="s">
+      <c r="F1117" s="1" t="s">
         <v>5082</v>
-      </c>
-      <c r="F1117" s="1" t="s">
-        <v>5083</v>
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1118" s="1" t="s">
+        <v>5083</v>
+      </c>
+      <c r="C1118" s="1" t="s">
         <v>5084</v>
       </c>
-      <c r="C1118" s="1" t="s">
+      <c r="F1118" s="1" t="s">
         <v>5085</v>
-      </c>
-      <c r="F1118" s="1" t="s">
-        <v>5086</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1119" s="1" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C1119" s="1" t="s">
         <v>5087</v>
       </c>
-      <c r="C1119" s="1" t="s">
+      <c r="F1119" s="1" t="s">
         <v>5088</v>
-      </c>
-      <c r="F1119" s="1" t="s">
-        <v>5089</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1120" s="1" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C1120" s="1" t="s">
         <v>5090</v>
       </c>
-      <c r="C1120" s="1" t="s">
+      <c r="F1120" s="1" t="s">
         <v>5091</v>
-      </c>
-      <c r="F1120" s="1" t="s">
-        <v>5092</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1121" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C1121" s="1" t="s">
         <v>5093</v>
       </c>
-      <c r="C1121" s="1" t="s">
+      <c r="F1121" s="1" t="s">
         <v>5094</v>
-      </c>
-      <c r="F1121" s="1" t="s">
-        <v>5095</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1122" s="1" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C1122" s="1" t="s">
         <v>5096</v>
       </c>
-      <c r="C1122" s="1" t="s">
+      <c r="F1122" s="1" t="s">
         <v>5097</v>
-      </c>
-      <c r="F1122" s="1" t="s">
-        <v>5098</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1123" s="1" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C1123" s="1" t="s">
         <v>5099</v>
       </c>
-      <c r="C1123" s="1" t="s">
+      <c r="F1123" s="1" t="s">
         <v>5100</v>
-      </c>
-      <c r="F1123" s="1" t="s">
-        <v>5101</v>
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1124" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C1124" s="1" t="s">
         <v>5102</v>
       </c>
-      <c r="C1124" s="1" t="s">
+      <c r="F1124" s="1" t="s">
         <v>5103</v>
-      </c>
-      <c r="F1124" s="1" t="s">
-        <v>5104</v>
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1125" s="1" t="s">
+        <v>5104</v>
+      </c>
+      <c r="C1125" s="1" t="s">
         <v>5105</v>
       </c>
-      <c r="C1125" s="1" t="s">
+      <c r="F1125" s="1" t="s">
         <v>5106</v>
-      </c>
-      <c r="F1125" s="1" t="s">
-        <v>5107</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1126" s="1" t="s">
+        <v>5107</v>
+      </c>
+      <c r="C1126" s="1" t="s">
         <v>5108</v>
       </c>
-      <c r="C1126" s="1" t="s">
+      <c r="F1126" s="1" t="s">
         <v>5109</v>
-      </c>
-      <c r="F1126" s="1" t="s">
-        <v>5110</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="B1127" s="1" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C1127" s="1" t="s">
         <v>5111</v>
       </c>
-      <c r="C1127" s="1" t="s">
+      <c r="F1127" s="1" t="s">
         <v>5112</v>
-      </c>
-      <c r="F1127" s="1" t="s">
-        <v>5113</v>
       </c>
     </row>
     <row r="1048576" x14ac:dyDescent="0.25"/>
